--- a/常熟理工欢迎姜萍_带行为属性_123123123_41_68.xlsx
+++ b/常熟理工欢迎姜萍_带行为属性_123123123_41_68.xlsx
@@ -110,6 +110,9 @@
     <t>2024-06-23 13:34:52.980</t>
   </si>
   <si>
+    <t>理性讨论</t>
+  </si>
+  <si>
     <t>种**</t>
   </si>
   <si>
@@ -205,9 +208,6 @@
   </si>
   <si>
     <t>2024-06-23 13:35:07.468</t>
-  </si>
-  <si>
-    <t>理性讨论</t>
   </si>
   <si>
     <t>波**</t>
@@ -434,7 +434,7 @@
     <t>2024-06-23 13:35:42.536</t>
   </si>
   <si>
-    <t>未分类</t>
+    <t>反对</t>
   </si>
   <si>
     <t>壹**</t>
@@ -1187,7 +1187,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1209,13 +1209,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1672,29 +1665,32 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1703,118 +1699,115 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2172,8 +2165,8 @@
   <sheetPr/>
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2289,7 +2282,7 @@
         <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2300,19 +2293,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4">
         <v>11</v>
@@ -2324,7 +2317,7 @@
         <v>222</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" t="s">
         <v>21</v>
@@ -2338,16 +2331,16 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -2359,10 +2352,10 @@
         <v>211</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2373,19 +2366,19 @@
         <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6">
         <v>77</v>
@@ -2397,10 +2390,10 @@
         <v>2576</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2411,22 +2404,22 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -2438,7 +2431,7 @@
         <v>60</v>
       </c>
       <c r="L7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" t="s">
         <v>21</v>
@@ -2452,22 +2445,22 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I8">
         <v>39</v>
@@ -2479,10 +2472,10 @@
         <v>1176</v>
       </c>
       <c r="L8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M8" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2593,7 +2586,7 @@
         <v>77</v>
       </c>
       <c r="M11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -2777,7 +2770,7 @@
         <v>105</v>
       </c>
       <c r="M16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2847,7 +2840,7 @@
         <v>115</v>
       </c>
       <c r="M18" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2888,7 +2881,7 @@
         <v>122</v>
       </c>
       <c r="M19" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2993,7 +2986,7 @@
         <v>138</v>
       </c>
       <c r="M22" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -3066,7 +3059,7 @@
         <v>149</v>
       </c>
       <c r="M24" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -3101,7 +3094,7 @@
         <v>154</v>
       </c>
       <c r="M25" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -3171,7 +3164,7 @@
         <v>164</v>
       </c>
       <c r="M27" t="s">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -3206,7 +3199,7 @@
         <v>169</v>
       </c>
       <c r="M28" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -3241,7 +3234,7 @@
         <v>174</v>
       </c>
       <c r="M29" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -3311,7 +3304,7 @@
         <v>184</v>
       </c>
       <c r="M31" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -3346,7 +3339,7 @@
         <v>189</v>
       </c>
       <c r="M32" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -3381,7 +3374,7 @@
         <v>194</v>
       </c>
       <c r="M33" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -3419,7 +3412,7 @@
         <v>200</v>
       </c>
       <c r="M34" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -3454,7 +3447,7 @@
         <v>205</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -3492,7 +3485,7 @@
         <v>211</v>
       </c>
       <c r="M36" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -3527,7 +3520,7 @@
         <v>216</v>
       </c>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -3635,7 +3628,7 @@
         <v>231</v>
       </c>
       <c r="M40" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3670,7 +3663,7 @@
         <v>236</v>
       </c>
       <c r="M41" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3705,7 +3698,7 @@
         <v>241</v>
       </c>
       <c r="M42" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3775,7 +3768,7 @@
         <v>250</v>
       </c>
       <c r="M44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3810,7 +3803,7 @@
         <v>254</v>
       </c>
       <c r="M45" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3845,7 +3838,7 @@
         <v>259</v>
       </c>
       <c r="M46" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3883,7 +3876,7 @@
         <v>265</v>
       </c>
       <c r="M47" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3918,7 +3911,7 @@
         <v>270</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3953,7 +3946,7 @@
         <v>275</v>
       </c>
       <c r="M49" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3988,7 +3981,7 @@
         <v>279</v>
       </c>
       <c r="M50" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -4023,7 +4016,7 @@
         <v>284</v>
       </c>
       <c r="M51" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -4061,7 +4054,7 @@
         <v>290</v>
       </c>
       <c r="M52" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -4096,7 +4089,7 @@
         <v>295</v>
       </c>
       <c r="M53" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -4131,7 +4124,7 @@
         <v>300</v>
       </c>
       <c r="M54" t="s">
-        <v>21</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -4166,7 +4159,7 @@
         <v>305</v>
       </c>
       <c r="M55" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -4201,7 +4194,7 @@
         <v>310</v>
       </c>
       <c r="M56" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -4236,7 +4229,7 @@
         <v>315</v>
       </c>
       <c r="M57" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -4379,7 +4372,7 @@
         <v>335</v>
       </c>
       <c r="M61" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -4484,7 +4477,7 @@
         <v>349</v>
       </c>
       <c r="M64" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4519,7 +4512,7 @@
         <v>354</v>
       </c>
       <c r="M65" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4554,7 +4547,7 @@
         <v>359</v>
       </c>
       <c r="M66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4589,7 +4582,7 @@
         <v>364</v>
       </c>
       <c r="M67" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4659,7 +4652,7 @@
         <v>374</v>
       </c>
       <c r="M69" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4694,7 +4687,7 @@
         <v>379</v>
       </c>
       <c r="M70" t="s">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
